--- a/ParkDace/bin/Debug/Campus_2_B_Park2.xlsx
+++ b/ParkDace/bin/Debug/Campus_2_B_Park2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Desktop\ESTG\IS\Projeto-IS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenfilipe/Desktop/Escola/3ºAno/1ºSemestre/IS/Projeto IS/ParkDace/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F62D664-5765-4D8B-B844-BC3B663A42A1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125FC0A6-ED69-5B42-8E0C-08AF99674118}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{E9C09612-09AF-3E4B-99D2-8B8D15F60D70}"/>
+    <workbookView xWindow="6920" yWindow="12060" windowWidth="28800" windowHeight="12220" xr2:uid="{E9C09612-09AF-3E4B-99D2-8B8D15F60D70}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -54,12 +54,6 @@
     <t>39.734909,-8.820708</t>
   </si>
   <si>
-    <t>39,734905,-8.820718</t>
-  </si>
-  <si>
-    <t>39,734928,-8.820685</t>
-  </si>
-  <si>
     <t>39.734946,-8.820649</t>
   </si>
   <si>
@@ -133,6 +127,12 @@
   </si>
   <si>
     <t>B-15</t>
+  </si>
+  <si>
+    <t>39.734905,-8.820718</t>
+  </si>
+  <si>
+    <t>39.734928,-8.820685</t>
   </si>
 </sst>
 </file>
@@ -509,16 +509,16 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="173" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A6:A16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -526,7 +526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,13 +534,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -548,125 +548,125 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
